--- a/UDEMY/05_Power QueryPower PivotPower BIDAXVeri Analizi/kaynaklar/sorguları ekle/mehmet.xlsx
+++ b/UDEMY/05_Power QueryPower PivotPower BIDAXVeri Analizi/kaynaklar/sorguları ekle/mehmet.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22508"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbola\Desktop\kaynaklar\sorguları ekle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\06_COURSES\UDEMY\05_Power QueryPower PivotPower BIDAXVeri Analizi\kaynaklar\sorguları ekle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C91D9403-BCE7-48A8-B63E-C4E3E6C57BEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{966FF11A-5D53-48D3-AD96-A1AB46403658}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9396"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa3" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>Temsilci</t>
   </si>
@@ -58,12 +57,18 @@
   </si>
   <si>
     <t>Onay</t>
+  </si>
+  <si>
+    <t>Harun Yasak</t>
+  </si>
+  <si>
+    <t>Burak Kuz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
@@ -122,13 +127,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6426A648-5EFE-41E5-B2D1-D4E381C17E1D}" name="Tablo3" displayName="Tablo3" ref="A1:D3" totalsRowShown="0">
-  <autoFilter ref="A1:D3" xr:uid="{15419E95-CD79-4CDA-AEEE-E87B7201FE72}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tablo3" displayName="Tablo3" ref="A1:D5" totalsRowShown="0">
+  <autoFilter ref="A1:D5"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{12A75CA4-8409-486F-8EDC-2076A9E98667}" name="Temsilci"/>
-    <tableColumn id="2" xr3:uid="{91297F56-2F8C-4DAF-AF61-C69D6D21DD13}" name="Müşteri"/>
-    <tableColumn id="3" xr3:uid="{5EB14B8E-DE0A-4FD3-8B3E-3157B17065B6}" name="Durum"/>
-    <tableColumn id="4" xr3:uid="{F5F74832-D635-47C0-AF07-FE0C7DA23860}" name="Arama Saati" dataDxfId="0"/>
+    <tableColumn id="1" name="Temsilci"/>
+    <tableColumn id="2" name="Müşteri"/>
+    <tableColumn id="3" name="Durum"/>
+    <tableColumn id="4" name="Arama Saati" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -430,21 +435,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F82A9790-A138-4CCE-B81A-4B445F20C27F}">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -458,7 +463,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -472,7 +477,7 @@
         <v>0.51736111111111105</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -484,6 +489,34 @@
       </c>
       <c r="D3" s="1">
         <v>0.63541666666666663</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.65625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.76041666666666663</v>
       </c>
     </row>
   </sheetData>
